--- a/medicine/Hématologie/Hémagglutination/Hémagglutination.xlsx
+++ b/medicine/Hématologie/Hémagglutination/Hémagglutination.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9magglutination</t>
+          <t>Hémagglutination</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’hémagglutination est une variante de la réaction d’agglutination. Elle est définie comme la fixation d’anticorps spécifiques sur des structures antigéniques présentes à la surface des globules rouges. Cette réaction aboutit à la formation d’un agrégat d'hématies appelé agglutinat. L’hémagglutination est un mécanisme principalement utilisé en laboratoire afin d’établir des sérodiagnostics et de déterminer les groupes sanguins. Cette méthode est très utilisée étant donné sa rapidité, sa bonne sensibilité et son faible coût.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9magglutination</t>
+          <t>Hémagglutination</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La réaction d'hémagglutination met en jeu la fixation d'anticorps sur des antigènes dit particulaires. C'est un moyen de détecter les anticorps d’un immun-sérum, signe de la réponse immunitaire humorale, qui se fixent sur les antigènes membranaires des hématies. C'est aussi un moyen de déterminer le groupe sanguin grâce à un anticorps connu appelé sérum test. Ceci est possible par le biais d’un pouvoir agglutinant.
 Deux théories rendent compte de ce mécanisme :
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%A9magglutination</t>
+          <t>Hémagglutination</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,10 +568,12 @@
           <t>Hémagglutination directe active</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L’hémagglutination directe active repose sur la mise en présence d’hématies et d’un sérum contenant des anticorps agglutinants, en règle générale des IgM. Dès lors, les hématies s’agglutinent si ces anticorps baissent suffisamment le potentiel zêta et forment des ponts avec les antigène particulaires présents naturellement sur les membranes des hématies.
-ex. : recherche de groupe sanguin[1] (les hématies sont porteuse des antigènes des différents systèmes de groupe sanguins), l’identification d’hématies animales et la détection d'anticorps dans un liquide biologique.
+ex. : recherche de groupe sanguin (les hématies sont porteuse des antigènes des différents systèmes de groupe sanguins), l’identification d’hématies animales et la détection d'anticorps dans un liquide biologique.
 </t>
         </is>
       </c>
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%A9magglutination</t>
+          <t>Hémagglutination</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Hémagglutination directe passive</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L’hémagglutination directe passive se fait avec des antigènes solubles fixés sur les membranes des hématies les rendant ainsi particulaires. Les hématies jouent ici le rôle de support figuré inerte n'intervenant pas dans la réaction antigènes-anticorps. La présence d'anticorps agglutinants sera alors décelée par l'agglutination des hématies sur lesquelles l'antigène a été fixé.
 ex. : TPHA (diagnostic de la Syphilis).
@@ -600,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>H%C3%A9magglutination</t>
+          <t>Hémagglutination</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -618,7 +636,9 @@
           <t>Hémagglutination indirecte</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cette réaction d’hémagglutination associe des antigènes particulaires et des anticorps peu ou non agglutinants. Il est donc nécessaire de favoriser l'agglutination, expliquée par deux théories, la théorie des ponts d'une part, et la baisse du potentiel zêta d'autre part, ou l'association des deux.
 Il existe trois méthodes d'agglutination artificielle afin de réaliser cette réaction :
@@ -634,7 +654,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>H%C3%A9magglutination</t>
+          <t>Hémagglutination</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -652,7 +672,9 @@
           <t>Inhibition de l'hémagglutination</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Un grand nombre de virus possèdent des hémagglutinines sur leur enveloppe. Ils vont ainsi provoquer l'agglutination des globules rouges. La réaction d'inhibition de l'hémagglutination met en jeu un antigène viral et des anticorps antiviraux, dirigés contre cette hémagglutinine, et les récepteurs portés par les hématies. Dans cette réaction, les anticorps antiviraux protecteurs se fixent sur le virus et empêchent sa combinaison avec les récepteurs des hématies introduites dans le deuxième temps de la réaction. Si les anticorps reconnaissent leur antigène, le complexe immun formé neutralise la capacité hémagglutinante du virus et on aboutit à une hémagglutination négative. Dans le cas où les anticorps ne correspondent pas au virus isolé, le complexe immun ne se forme pas et le virus peut induire une hémagglutination.
 ex. : recherche de βHCG, sérodiagnostic de la rubéole ou de la rougeole.
